--- a/current_rota.xlsx
+++ b/current_rota.xlsx
@@ -511,7 +511,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45157</v>
+        <v>45192</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -525,17 +525,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>iranzu</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>paula</t>
+          <t>fernando</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,22 +545,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>gigi</t>
+          <t>sandra</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>bella</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>kat</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>drazen</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -573,11 +573,15 @@
           <t>matias</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Seb</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45158</v>
+        <v>45193</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -591,17 +595,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>iranzu</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>paula</t>
+          <t>fernando</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -611,22 +615,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>fernando</t>
+          <t>sandra</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>bella</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>drazen</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -639,11 +643,15 @@
           <t>matias</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Seb</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45159</v>
+        <v>45194</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -657,17 +665,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>madd</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ryan</t>
+          <t>kat</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -677,18 +685,18 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>shirley</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>fernando</t>
+          <t>sandra</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>bella</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -697,15 +705,11 @@
           <t>matias</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>drazen</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45160</v>
+        <v>45195</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -719,42 +723,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>madd</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ryan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>douglas</t>
-        </is>
-      </c>
+          <t>kat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>gigi</t>
+          <t>shirley</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>fernando</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>pedro</t>
-        </is>
-      </c>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>bella</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -763,15 +759,11 @@
           <t>julian</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>drazen</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45161</v>
+        <v>45196</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -785,38 +777,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>iranzu</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>madd</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>paula</t>
+          <t>fernando</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>gigi</t>
+          <t>shirley</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>fernando</t>
+          <t>sandra</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ryan</t>
+          <t>kat</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>drazen</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -831,13 +823,13 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>drazen</t>
+          <t>Seb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162</v>
+        <v>45197</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -851,38 +843,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>iranzu</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>madd</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>paula</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>gigi</t>
-        </is>
-      </c>
+          <t>fernando</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>douglas</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>fernando</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ryan</t>
-        </is>
-      </c>
+          <t>shirley</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>drazen</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -897,13 +885,13 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>drazen</t>
+          <t>Seb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45163</v>
+        <v>45198</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -917,17 +905,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>iranzu</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>paula</t>
+          <t>fernando</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -937,22 +925,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>gigi</t>
+          <t>shirley</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>bella</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>kat</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>drazen</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -967,7 +955,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>drazen</t>
+          <t>Seb</t>
         </is>
       </c>
     </row>

--- a/current_rota.xlsx
+++ b/current_rota.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sandra</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>charlotte</t>
+          <t>shirley</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -595,14 +595,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>luisa</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>marine</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>fernando</t>
@@ -615,12 +615,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>sandra</t>
+          <t>charlotte</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>charlotte</t>
+          <t>shirley</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>shirley</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>sandra</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>luisa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -739,12 +739,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
+          <t>sandra</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>shirley</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>sandra</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>luisa</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -793,19 +793,15 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>shirley</t>
+          <t>sandra</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sandra</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
           <t>kat</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>drazen</t>
@@ -843,7 +839,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>luisa</t>
+          <t>marine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -861,10 +857,14 @@
           <t>douglas</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>sandra</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shirley</t>
+          <t>kat</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -905,14 +905,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>luisa</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>marine</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>fernando</t>
@@ -925,17 +925,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>charlotte</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>shirley</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>charlotte</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>sandra</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
